--- a/model/agriculture_SDMX_Model.xlsx
+++ b/model/agriculture_SDMX_Model.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\rara\RAP\Agriculture\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\rara\RAP\Agriculture\sdd-household-primary-activity-processing\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EE0621-FF87-4F17-9603-7EFB849BFEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFF8B4A-71AC-4C1B-BE78-C257411FB5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSD" sheetId="1" r:id="rId1"/>
-    <sheet name="AGRICULTURE_ACTIVITY" sheetId="6" r:id="rId2"/>
-    <sheet name="Indicator" sheetId="7" r:id="rId3"/>
+    <sheet name="AGRICULTURE_VEGETABLE" sheetId="8" r:id="rId2"/>
+    <sheet name="AGRICULTURE_TUBER" sheetId="9" r:id="rId3"/>
+    <sheet name="AGRICULTURE_FRUIT" sheetId="6" r:id="rId4"/>
+    <sheet name="Indicator" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>Concepts</t>
   </si>
@@ -100,18 +102,12 @@
     <t>Reference area</t>
   </si>
   <si>
-    <t>CL_AREA</t>
-  </si>
-  <si>
     <t>INDICATOR</t>
   </si>
   <si>
     <t>Indicator</t>
   </si>
   <si>
-    <t>CL_INDICATOR</t>
-  </si>
-  <si>
     <t>OBS_VALUE</t>
   </si>
   <si>
@@ -154,9 +150,6 @@
     <t>LABEL</t>
   </si>
   <si>
-    <t>OT</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -196,37 +189,46 @@
     <t>CL_COM_AGE</t>
   </si>
   <si>
-    <t>AGRICULTURE_ACTIVITY</t>
-  </si>
-  <si>
-    <t>Agriculture activity</t>
-  </si>
-  <si>
-    <t>CL_AGRICULTURE_ACTIVITY</t>
-  </si>
-  <si>
-    <t>VG</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>Tuber</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>Other agriculture activity</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>CL_COM_GEO_PICT_L123</t>
+  </si>
+  <si>
+    <t>CL_HH_PRIMARY_ACTIVITY_INDICATORS</t>
+  </si>
+  <si>
+    <t>AGRICULTURE_VEGETABLE</t>
+  </si>
+  <si>
+    <t>AGRICULTURE_TUBER</t>
+  </si>
+  <si>
+    <t>AGRICULTURE_FRUIT</t>
+  </si>
+  <si>
+    <t>CL_COM_YESNO</t>
+  </si>
+  <si>
+    <t>Vegetable farming</t>
+  </si>
+  <si>
+    <t>Tuber farming</t>
+  </si>
+  <si>
+    <t>Fruit farming</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -584,20 +586,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -694,10 +696,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -709,18 +711,18 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -732,7 +734,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -740,10 +742,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -755,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -766,10 +768,10 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -778,53 +780,53 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -832,47 +834,93 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -883,11 +931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A81CB80-1365-4A25-8E26-E6A4907DE646}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -902,47 +950,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>62</v>
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -951,6 +983,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDAADB6-7676-4D25-B423-2DD9AA7A0212}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -969,23 +1105,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/model/agriculture_SDMX_Model.xlsx
+++ b/model/agriculture_SDMX_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\rara\RAP\Agriculture\sdd-household-primary-activity-processing\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFF8B4A-71AC-4C1B-BE78-C257411FB5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387B49F3-0391-4AE7-8914-82A3329303C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSD" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
   <si>
     <t>Concepts</t>
   </si>
@@ -96,9 +96,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>REF_AREA</t>
-  </si>
-  <si>
     <t>Reference area</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>CL_UNIT_MEASURE</t>
-  </si>
-  <si>
     <t>Observation Status</t>
   </si>
   <si>
-    <t>COMMENT</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>CL_OBS_STATUS</t>
-  </si>
-  <si>
     <t>_T</t>
   </si>
   <si>
@@ -229,6 +217,42 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>GEO_PICT</t>
+  </si>
+  <si>
+    <t>CL_COM_UNIT_MEASURE</t>
+  </si>
+  <si>
+    <t>UNIT_MULT</t>
+  </si>
+  <si>
+    <t>Unit multiplier</t>
+  </si>
+  <si>
+    <t>CL_COM_UNIT_MULT</t>
+  </si>
+  <si>
+    <t>CL_COM_OBS_STATUS</t>
+  </si>
+  <si>
+    <t>DATA_SOURCE</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>OBS_COMMENT</t>
+  </si>
+  <si>
+    <t>CONF_STATUS</t>
+  </si>
+  <si>
+    <t>Confidentiality status</t>
+  </si>
+  <si>
+    <t>CL_COM_CONF_STATUS</t>
   </si>
 </sst>
 </file>
@@ -586,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +697,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -688,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -696,10 +720,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -711,18 +735,18 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -734,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -742,10 +766,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -757,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -765,13 +789,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -780,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -788,10 +812,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -803,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -811,10 +835,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -826,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -834,22 +858,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -857,22 +881,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -880,22 +904,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -906,21 +930,90 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -950,31 +1043,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDAADB6-7676-4D25-B423-2DD9AA7A0212}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1002,31 +1095,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1054,31 +1147,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1105,23 +1198,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
